--- a/src/test/java/runnerFiles/TestClass.xlsx
+++ b/src/test/java/runnerFiles/TestClass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srikant\New-workspace\Automation\src\test\java\runnerFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Projects\HRM\OrangeHRM_Automation\src\test\java\runnerFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EACF631-E98D-4EB5-8E35-92E8D89E7FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61C31C4-9FE0-4CEE-AD18-C2006D434F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCaseSteps" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>ClassName</t>
   </si>
@@ -36,19 +36,13 @@
     <t>ActiveFlag</t>
   </si>
   <si>
-    <t>Navigate_Login_Page</t>
-  </si>
-  <si>
     <t>Login_Page</t>
   </si>
   <si>
-    <t>Validate_Login</t>
-  </si>
-  <si>
     <t>TestCaseID</t>
   </si>
   <si>
-    <t>Other Operations for test case 2</t>
+    <t>Add_User</t>
   </si>
 </sst>
 </file>
@@ -366,10 +360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -381,7 +375,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -409,85 +403,15 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="D8">
         <v>1</v>
       </c>
     </row>
